--- a/db/Modelo relacional.xlsx
+++ b/db/Modelo relacional.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\Acceso carpetas\Septimo semestre\Sistemas operativos\proyecto final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DD6A45-E8B6-4944-80EC-F02ED01C03E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD7632-7DC2-4A1D-81CB-CE933BBA1DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
+    <workbookView xWindow="795" yWindow="780" windowWidth="17250" windowHeight="8910" activeTab="1" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Menu del proyecto" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>empresa</t>
   </si>
@@ -179,13 +180,31 @@
     <t>ALTA</t>
   </si>
   <si>
-    <t>ENVIOS</t>
-  </si>
-  <si>
-    <t>ENTREGAS</t>
-  </si>
-  <si>
     <t>CONSULTA</t>
+  </si>
+  <si>
+    <t>ALMACENES</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>MODIFICAR</t>
+  </si>
+  <si>
+    <t>TIENDAS</t>
+  </si>
+  <si>
+    <t>CAMIONES</t>
+  </si>
+  <si>
+    <t>ENTREGAR</t>
+  </si>
+  <si>
+    <t>(PEDIR QUE PAQUETE SE VA A ENTREGAR)</t>
+  </si>
+  <si>
+    <t>(PEDIR LOS PAQUETES)</t>
   </si>
 </sst>
 </file>
@@ -327,6 +346,24 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,24 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,26 +701,26 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -710,10 +729,10 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -722,10 +741,10 @@
       <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
@@ -798,31 +817,31 @@
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="N7" s="1" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -837,13 +856,13 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
@@ -852,16 +871,16 @@
       <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="10" t="s">
+      <c r="P8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R8" t="s">
@@ -927,21 +946,21 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="1" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
@@ -953,51 +972,51 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="1" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J16" t="s">
@@ -1006,16 +1025,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1024,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F815785B-B3D1-4E33-BE83-ED108E9817BE}">
-  <dimension ref="D4:E21"/>
+  <dimension ref="D4:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1058,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
@@ -1053,67 +1072,113 @@
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>46</v>
+      <c r="E8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>47</v>
+      <c r="D9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1121,4 +1186,16 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5B0C9-1970-4491-9621-0401F9FFDA2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db/Modelo relacional.xlsx
+++ b/db/Modelo relacional.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\Acceso carpetas\Septimo semestre\Sistemas operativos\proyecto final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD7632-7DC2-4A1D-81CB-CE933BBA1DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF71FE0-E2C8-4E31-84BE-AE67249C63A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="780" windowWidth="17250" windowHeight="8910" activeTab="1" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="17925" windowHeight="15585" activeTab="2" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Menu del proyecto" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Modelo relacional" sheetId="3" r:id="rId2"/>
+    <sheet name="Menu del proyecto" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>empresa</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t>(PEDIR LOS PAQUETES)</t>
+  </si>
+  <si>
+    <t>tienda</t>
+  </si>
+  <si>
+    <t>id_almacen</t>
+  </si>
+  <si>
+    <t>id_tienda</t>
+  </si>
+  <si>
+    <t>estatus</t>
+  </si>
+  <si>
+    <t>EN CAMINO</t>
   </si>
 </sst>
 </file>
@@ -356,6 +371,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,15 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +705,7 @@
   <dimension ref="B1:S16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F15" sqref="F15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,23 +716,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="K2" s="10" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="K2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -817,28 +832,28 @@
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="10" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="13" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -946,18 +961,18 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="13" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -984,18 +999,18 @@
     </row>
     <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -1025,6 +1040,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:J15"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B7:F7"/>
@@ -1033,8 +1050,6 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1042,11 +1057,228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5B0C9-1970-4491-9621-0401F9FFDA2A}">
+  <dimension ref="B1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F815785B-B3D1-4E33-BE83-ED108E9817BE}">
   <dimension ref="D4:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J7" sqref="J7:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,16 +1418,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5B0C9-1970-4491-9621-0401F9FFDA2A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/Modelo relacional.xlsx
+++ b/db/Modelo relacional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\Acceso carpetas\Septimo semestre\Sistemas operativos\proyecto final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF71FE0-E2C8-4E31-84BE-AE67249C63A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4868FF75-A0EC-4D94-AAAC-A9B4661A79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17925" windowHeight="15585" activeTab="2" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>empresa</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>EN CAMINO</t>
+  </si>
+  <si>
+    <t>salir</t>
   </si>
 </sst>
 </file>
@@ -1040,16 +1043,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="G11:J11"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="G11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1060,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5B0C9-1970-4491-9621-0401F9FFDA2A}">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,85 +1278,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F815785B-B3D1-4E33-BE83-ED108E9817BE}">
-  <dimension ref="D4:F29"/>
+  <dimension ref="C4:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J18"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1.2</v>
+      </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1.3</v>
+      </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>3</v>
+      </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4</v>
+      </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>47</v>
       </c>
@@ -1361,12 +1385,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>54</v>
       </c>
@@ -1374,44 +1398,55 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5</v>
+      </c>
       <c r="D22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/db/Modelo relacional.xlsx
+++ b/db/Modelo relacional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\Acceso carpetas\Septimo semestre\Sistemas operativos\proyecto final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4868FF75-A0EC-4D94-AAAC-A9B4661A79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F06CB-4B41-479F-95E7-9B61E175B690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BA08EC9B-4E29-4CD4-8532-8052064AA993}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +312,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -362,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -374,6 +386,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -382,15 +403,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,23 +733,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -835,28 +849,28 @@
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="N7" s="10" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -964,18 +978,18 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="10" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1002,18 +1016,18 @@
     </row>
     <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -1043,16 +1057,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1063,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5B0C9-1970-4491-9621-0401F9FFDA2A}">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1074,22 +1088,22 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1171,12 +1185,12 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1191,15 +1205,15 @@
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -1246,11 +1260,11 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -1278,20 +1292,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F815785B-B3D1-4E33-BE83-ED108E9817BE}">
-  <dimension ref="C4:F30"/>
+  <dimension ref="C4:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1.1000000000000001</v>
       </c>
@@ -1307,77 +1325,110 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>1.2</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>1.3</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>47</v>
       </c>
@@ -1385,12 +1436,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>54</v>
       </c>
@@ -1398,7 +1449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>5</v>
       </c>
@@ -1406,42 +1457,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>6</v>
       </c>
